--- a/Design Architecture/API_Batch_Description.xlsx
+++ b/Design Architecture/API_Batch_Description.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\naraw\Documents\GitHub\CEPP64-08\Design Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{734C000B-D4A6-4D35-923B-8BDD37E793BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AFDA3F0-55A1-4320-9C07-4FCF50E440D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7981FBD3-14EA-4DDF-B3CD-77BD8671981D}"/>
+    <workbookView xWindow="2595" yWindow="3360" windowWidth="21600" windowHeight="11385" xr2:uid="{7981FBD3-14EA-4DDF-B3CD-77BD8671981D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>API Name</t>
   </si>
@@ -97,9 +97,6 @@
     <t>subjectId : Int</t>
   </si>
   <si>
-    <t>predictData : List&lt;Dict&gt;</t>
-  </si>
-  <si>
     <t>Subject Group</t>
   </si>
   <si>
@@ -188,6 +185,12 @@
   </si>
   <si>
     <t>แบบจำลองพยากรณ์ระยะเวลาในการหางานภาค ( ปกติ, ต่อเนื่อง, นานาชาติ)</t>
+  </si>
+  <si>
+    <t>testData : Dict, isCurri : Int, isMany : Boolean</t>
+  </si>
+  <si>
+    <t>studentData : List&lt;Dict&gt;</t>
   </si>
 </sst>
 </file>
@@ -592,14 +595,14 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="54.75" customWidth="1"/>
     <col min="2" max="2" width="71.125" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="3" max="3" width="40.875" customWidth="1"/>
     <col min="4" max="4" width="23.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -625,7 +628,7 @@
         <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -698,94 +701,94 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
         <v>28</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
         <v>31</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>32</v>
-      </c>
-      <c r="D11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" t="s">
         <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
       </c>
       <c r="C13" t="s">
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:4" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>1</v>
@@ -793,42 +796,42 @@
     </row>
     <row r="17" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
